--- a/SP MEDICAL GROUP/sprint_1_BD/modelagens/modelagem-SP_MED_GROUP-fisico.xlsx
+++ b/SP MEDICAL GROUP/sprint_1_BD/modelagens/modelagem-SP_MED_GROUP-fisico.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20377"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Werther\Documents\SENAI - 2\SP MEDICAL GROUP\sprint_1_BD\modelagens\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fic\Desktop\SENAI_2\SP MEDICAL GROUP\sprint_1_BD\modelagens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB517C0E-D58F-49A1-A60C-38306E2071FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81B3505-9093-477E-A4CC-505AA6B385A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-45" windowWidth="28110" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20376" yWindow="-48" windowWidth="28116" windowHeight="16440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="especialidade" sheetId="2" r:id="rId1"/>
     <sheet name="tipoUsuario" sheetId="6" r:id="rId2"/>
     <sheet name="clinica" sheetId="7" r:id="rId3"/>
-    <sheet name="status" sheetId="8" r:id="rId4"/>
+    <sheet name="situacao" sheetId="8" r:id="rId4"/>
     <sheet name="paciente" sheetId="4" r:id="rId5"/>
-    <sheet name="Medicos" sheetId="3" r:id="rId6"/>
-    <sheet name="Consultas" sheetId="5" r:id="rId7"/>
+    <sheet name="usuario" sheetId="9" r:id="rId6"/>
+    <sheet name="medico" sheetId="3" r:id="rId7"/>
+    <sheet name="consulta" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="117">
   <si>
     <t>86.400.902/0001-30</t>
   </si>
@@ -90,15 +91,6 @@
     <t xml:space="preserve">Clinica Possarle </t>
   </si>
   <si>
-    <t>Crm</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>Especialidade</t>
-  </si>
-  <si>
     <t>Av. Barão Limeira, 532, São Paulo, SP</t>
   </si>
   <si>
@@ -111,9 +103,6 @@
     <t>Pediatria</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>ricardo.lemos@spmedicalgroup.com.br</t>
   </si>
   <si>
@@ -195,18 +184,6 @@
     <t>Alameda dos Arapanés, 945 - Indianópolis, São Paulo - SP, 04524-001</t>
   </si>
   <si>
-    <t>Prontuario</t>
-  </si>
-  <si>
-    <t>Medico</t>
-  </si>
-  <si>
-    <t>Data_Consulta</t>
-  </si>
-  <si>
-    <t>Situação</t>
-  </si>
-  <si>
     <t>Mariana</t>
   </si>
   <si>
@@ -216,15 +193,6 @@
     <t>R Sao Antonio, 232 - Vila Universal, Barueri - SP, 06407-140</t>
   </si>
   <si>
-    <t>Agendada</t>
-  </si>
-  <si>
-    <t>Realizada</t>
-  </si>
-  <si>
-    <t>Cancelada</t>
-  </si>
-  <si>
     <t>43522543-5</t>
   </si>
   <si>
@@ -312,18 +280,9 @@
     <t>status</t>
   </si>
   <si>
-    <t>idStatus</t>
-  </si>
-  <si>
-    <t>confirmada</t>
-  </si>
-  <si>
     <t>cancelada</t>
   </si>
   <si>
-    <t>aguardando aprovação</t>
-  </si>
-  <si>
     <t>idPaciente</t>
   </si>
   <si>
@@ -346,25 +305,97 @@
   </si>
   <si>
     <t>nomeCompleto</t>
+  </si>
+  <si>
+    <t>Dr. Ricardo L.</t>
+  </si>
+  <si>
+    <t>Dr. Roberto P.</t>
+  </si>
+  <si>
+    <t>Dra. Helena S.</t>
+  </si>
+  <si>
+    <t>Edvaldo</t>
+  </si>
+  <si>
+    <t>edvaldo.silva@spmedicalgroup.com.br</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>627</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>443</t>
+  </si>
+  <si>
+    <t>698</t>
+  </si>
+  <si>
+    <t>412</t>
+  </si>
+  <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>usuario</t>
+  </si>
+  <si>
+    <t>idMedico</t>
+  </si>
+  <si>
+    <t>crm</t>
+  </si>
+  <si>
+    <t>consulta</t>
+  </si>
+  <si>
+    <t>idConsulta</t>
+  </si>
+  <si>
+    <t>dataHorario</t>
+  </si>
+  <si>
+    <t>resumo</t>
+  </si>
+  <si>
+    <t>realizada</t>
+  </si>
+  <si>
+    <t>agendada</t>
+  </si>
+  <si>
+    <t>Consulta de rotina</t>
+  </si>
+  <si>
+    <t>Retorno</t>
+  </si>
+  <si>
+    <t>Encaminhamento para exames</t>
+  </si>
+  <si>
+    <t>Falta de apetite</t>
+  </si>
+  <si>
+    <t>idSituacao</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF4A4A4A"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -391,13 +422,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -429,21 +453,140 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -466,45 +609,131 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -789,162 +1018,162 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="10"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
         <v>7</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
         <v>8</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
         <v>9</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
         <v>10</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
         <v>11</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
         <v>12</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
         <v>13</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
         <v>14</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+      <c r="B16" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
         <v>15</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+      <c r="B17" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
         <v>16</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
+      <c r="B18" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
         <v>17</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="11" t="s">
         <v>17</v>
       </c>
     </row>
@@ -962,51 +1191,51 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="10"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="12"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="B3" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="B4" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
         <v>3</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>83</v>
+      <c r="B5" s="14" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1022,120 +1251,97 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>88</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>77</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="18">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
-        <v>2</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
-        <v>3</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="5:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="E3" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="18" spans="5:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1144,50 +1350,50 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="10"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="21"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="23">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="B3" s="23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="23">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="B4" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="23">
         <v>3</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>95</v>
+      <c r="B5" s="23" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1200,489 +1406,812 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:J9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="23.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="67.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="23.42578125" style="3"/>
+    <col min="1" max="1" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="67.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="23.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G2" s="3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="F2" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="26">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="27">
+        <v>30602</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="26">
+        <v>94839859000</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="26">
+        <v>2</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="27">
+        <v>37095</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="26">
+        <v>73556944057</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="26">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="7">
-        <v>30602</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="3">
-        <v>94839859000</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="7">
-        <v>37095</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="3">
-        <v>73556944057</v>
-      </c>
-      <c r="G4" s="20" t="s">
+      <c r="D5" s="27">
+        <v>28773</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="26">
+        <v>16839338002</v>
+      </c>
+      <c r="G5" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H5" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="26">
+        <v>4</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="7">
-        <v>28773</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="3">
-        <v>16839338002</v>
-      </c>
-      <c r="G5" s="20" t="s">
+      <c r="D6" s="27">
+        <v>31333</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="26">
+        <v>14332654765</v>
+      </c>
+      <c r="G6" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H6" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
+        <v>5</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="7">
-        <v>31333</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="3">
-        <v>14332654765</v>
-      </c>
-      <c r="G6" s="20" t="s">
+      <c r="D7" s="27">
+        <v>27633</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="26">
+        <v>91305348010</v>
+      </c>
+      <c r="G7" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H7" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
+        <v>6</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="7">
-        <v>27633</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="3">
-        <v>91305348010</v>
-      </c>
-      <c r="G7" s="20" t="s">
+      <c r="D8" s="27">
+        <v>26379</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="26">
+        <v>79799299004</v>
+      </c>
+      <c r="G8" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H8" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="26">
+        <v>7</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="7">
-        <v>26379</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="3">
-        <v>79799299004</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="D9" s="27">
+        <v>43164</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="26">
+        <v>13771913039</v>
+      </c>
+      <c r="G9" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3">
-        <v>3</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="7">
-        <v>43164</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="3">
-        <v>13771913039</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="H9" s="26"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I9" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="I8" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="I7" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="I6" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="I5" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="I3" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-  </hyperlinks>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF91A465-1FF9-40BD-92FD-7339198494A3}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="36.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="19.7109375" style="2"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11">
+        <v>3</v>
+      </c>
+      <c r="C3" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="D3" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="34">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11">
+        <v>3</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="34">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11">
+        <v>3</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="34">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11">
+        <v>3</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="34">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11">
+        <v>3</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11">
+        <v>3</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>7</v>
+      </c>
+      <c r="B9" s="11">
+        <v>3</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11">
+        <v>2</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11">
+        <v>2</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>11</v>
+      </c>
+      <c r="B13" s="11">
+        <v>1</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D9" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="D8" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="D7" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="D4" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="D3" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="D10" r:id="rId8" xr:uid="{BCA5A2E8-0C3E-4DF5-B259-F679DF6580E3}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{3E1BA876-2934-4871-9259-D56FB7F4492D}"/>
+    <hyperlink ref="D12" r:id="rId10" xr:uid="{4DA34862-1AB0-4253-9EDE-6975863A87AD}"/>
+    <hyperlink ref="D13" r:id="rId11" xr:uid="{09F3B4FF-FA3D-42FB-AC92-08C8C7268187}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <ignoredErrors>
+    <ignoredError sqref="E7 E8:E13" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="19.6640625" style="1"/>
+    <col min="5" max="5" width="17.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="36.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="19.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="39"/>
+    </row>
+    <row r="2" spans="1:6" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="41">
+        <v>1</v>
+      </c>
+      <c r="B3" s="41">
+        <v>2</v>
+      </c>
+      <c r="C3" s="41">
+        <v>1</v>
+      </c>
+      <c r="D3" s="41">
+        <v>8</v>
+      </c>
+      <c r="E3" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="F3" s="41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="41">
+        <v>2</v>
+      </c>
+      <c r="B4" s="41">
+        <v>17</v>
+      </c>
+      <c r="C4" s="41">
+        <v>1</v>
+      </c>
+      <c r="D4" s="41">
+        <v>9</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="41">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B5" s="41">
         <v>16</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C5" s="41">
+        <v>1</v>
+      </c>
+      <c r="D5" s="41">
+        <v>10</v>
+      </c>
+      <c r="E5" s="41" t="s">
         <v>25</v>
       </c>
+      <c r="F5" s="41" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-  </hyperlinks>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="9">
+    <row r="1" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="19">
+        <v>1</v>
+      </c>
+      <c r="B3" s="19">
+        <v>3</v>
+      </c>
+      <c r="C3" s="19">
+        <v>7</v>
+      </c>
+      <c r="D3" s="19">
+        <v>1</v>
+      </c>
+      <c r="E3" s="43">
         <v>43850.625</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="F3" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="19">
+        <v>2</v>
+      </c>
+      <c r="B4" s="19">
+        <v>2</v>
+      </c>
+      <c r="C4" s="19">
+        <v>2</v>
+      </c>
+      <c r="D4" s="19">
+        <v>3</v>
+      </c>
+      <c r="E4" s="43">
         <v>43836.416666666664</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="9">
+      <c r="F4" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="19">
+        <v>3</v>
+      </c>
+      <c r="B5" s="19">
+        <v>2</v>
+      </c>
+      <c r="C5" s="19">
+        <v>3</v>
+      </c>
+      <c r="D5" s="19">
+        <v>1</v>
+      </c>
+      <c r="E5" s="43">
         <v>43868.458333333336</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="F5" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="19">
+        <v>4</v>
+      </c>
+      <c r="B6" s="19">
+        <v>2</v>
+      </c>
+      <c r="C6" s="19">
+        <v>2</v>
+      </c>
+      <c r="D6" s="19">
+        <v>1</v>
+      </c>
+      <c r="E6" s="43">
         <v>43137.416666666664</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="F6" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="19">
+        <v>5</v>
+      </c>
+      <c r="B7" s="19">
+        <v>1</v>
+      </c>
+      <c r="C7" s="19">
+        <v>4</v>
+      </c>
+      <c r="D7" s="19">
+        <v>3</v>
+      </c>
+      <c r="E7" s="43">
         <v>43503.458854166667</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="F7" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="19">
+        <v>6</v>
+      </c>
+      <c r="B8" s="19">
+        <v>3</v>
+      </c>
+      <c r="C8" s="19">
+        <v>7</v>
+      </c>
+      <c r="D8" s="19">
+        <v>2</v>
+      </c>
+      <c r="E8" s="43">
         <v>43898.625</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="F8" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="19">
+        <v>7</v>
+      </c>
+      <c r="B9" s="19">
+        <v>1</v>
+      </c>
+      <c r="C9" s="19">
+        <v>4</v>
+      </c>
+      <c r="D9" s="19">
+        <v>2</v>
+      </c>
+      <c r="E9" s="43">
         <v>43899.458854166667</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="F9" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="I9" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/SP MEDICAL GROUP/sprint_1_BD/modelagens/modelagem-SP_MED_GROUP-fisico.xlsx
+++ b/SP MEDICAL GROUP/sprint_1_BD/modelagens/modelagem-SP_MED_GROUP-fisico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20377"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fic\Desktop\SENAI_2\SP MEDICAL GROUP\sprint_1_BD\modelagens\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Werther\Documents\SENAI - 2\SP MEDICAL GROUP\sprint_1_BD\modelagens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81B3505-9093-477E-A4CC-505AA6B385A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F98DBAA-9A8E-4941-8F65-0D52D306F079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20376" yWindow="-48" windowWidth="28116" windowHeight="16440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="especialidade" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="130">
   <si>
     <t>86.400.902/0001-30</t>
   </si>
@@ -322,27 +322,6 @@
     <t>edvaldo.silva@spmedicalgroup.com.br</t>
   </si>
   <si>
-    <t>012</t>
-  </si>
-  <si>
-    <t>627</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>443</t>
-  </si>
-  <si>
-    <t>698</t>
-  </si>
-  <si>
-    <t>412</t>
-  </si>
-  <si>
-    <t>470</t>
-  </si>
-  <si>
     <t>usuario</t>
   </si>
   <si>
@@ -383,13 +362,73 @@
   </si>
   <si>
     <t>idSituacao</t>
+  </si>
+  <si>
+    <t>Ligia Maria da Silva</t>
+  </si>
+  <si>
+    <t>Alexandre Duarte</t>
+  </si>
+  <si>
+    <t>Fernando Ferreira</t>
+  </si>
+  <si>
+    <t>Henrique da Nobrega</t>
+  </si>
+  <si>
+    <t>João Martins</t>
+  </si>
+  <si>
+    <t>Bruno Xavier</t>
+  </si>
+  <si>
+    <t>Mariana Castilho</t>
+  </si>
+  <si>
+    <t>12345678</t>
+  </si>
+  <si>
+    <t>34594675</t>
+  </si>
+  <si>
+    <t>23431874</t>
+  </si>
+  <si>
+    <t>76557910</t>
+  </si>
+  <si>
+    <t>01202486</t>
+  </si>
+  <si>
+    <t>62797645</t>
+  </si>
+  <si>
+    <t>12858455</t>
+  </si>
+  <si>
+    <t>44331870</t>
+  </si>
+  <si>
+    <t>69824971</t>
+  </si>
+  <si>
+    <t>41254970</t>
+  </si>
+  <si>
+    <t>47098654</t>
+  </si>
+  <si>
+    <t>horarioFuncionamento</t>
+  </si>
+  <si>
+    <t>Das 7:00 às 19:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,14 +475,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,21 +488,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -651,7 +667,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -662,44 +678,29 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -710,30 +711,41 @@
     <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1017,163 +1029,163 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="8"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="31"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
         <v>17</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1194,47 +1206,47 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="12"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="32"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="14">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1251,70 +1263,78 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="14" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="18">
+      <c r="G2" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="17" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1322,7 +1342,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1330,7 +1350,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="18" spans="5:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1338,7 +1358,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1353,46 +1373,46 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="21"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" s="22" t="s">
+      <c r="B1" s="34"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="23">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="23">
+      <c r="B3" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
         <v>2</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="23">
+      <c r="B4" s="19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
         <v>3</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="19" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1409,226 +1429,240 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="67.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="23.44140625" style="2"/>
+    <col min="2" max="2" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="67.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="23.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="20" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="26">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="21">
         <v>1</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="27">
+      <c r="B3" s="21">
+        <v>1</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="22">
         <v>30602</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="21">
         <v>94839859000</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="26">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="21">
         <v>2</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="27">
+      <c r="B4" s="21">
+        <v>2</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="22">
         <v>37095</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="21">
         <v>73556944057</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="26">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="21">
         <v>3</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="27">
+      <c r="B5" s="21">
+        <v>3</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="22">
         <v>28773</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="21">
         <v>16839338002</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="26">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="21">
         <v>4</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="27">
+      <c r="B6" s="21">
+        <v>4</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="22">
         <v>31333</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="21">
         <v>14332654765</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="26">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="21">
         <v>5</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="27">
+      <c r="B7" s="21">
+        <v>5</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="22">
         <v>27633</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="21">
         <v>91305348010</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="21" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="21">
         <v>6</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="27">
+      <c r="B8" s="21">
+        <v>6</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="22">
         <v>26379</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="21">
         <v>79799299004</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="21" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="26">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="21">
         <v>7</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="27">
+      <c r="B9" s="21">
+        <v>7</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="22">
         <v>43164</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="21">
         <v>13771913039</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="26"/>
+      <c r="H9" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1643,227 +1677,228 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="25" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>3</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10">
+        <v>3</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10">
+        <v>3</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10">
+        <v>3</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10">
+        <v>3</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="11">
-        <v>3</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="34">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11">
-        <v>3</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="34">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11">
-        <v>3</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="34">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
-        <v>5</v>
-      </c>
-      <c r="B7" s="11">
-        <v>3</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
-        <v>6</v>
-      </c>
-      <c r="B8" s="11">
-        <v>3</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
-        <v>7</v>
-      </c>
-      <c r="B9" s="11">
-        <v>3</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
-        <v>8</v>
-      </c>
-      <c r="B10" s="11">
+      <c r="C10" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10">
         <v>2</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="36" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
-        <v>9</v>
-      </c>
-      <c r="B11" s="11">
+      <c r="C11" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10">
         <v>2</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
-        <v>10</v>
-      </c>
-      <c r="B12" s="11">
-        <v>2</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="36" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
+      <c r="E12" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
         <v>11</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>1</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="36" t="s">
-        <v>102</v>
+      <c r="E13" s="27" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1877,16 +1912,14 @@
     <hyperlink ref="D6" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
     <hyperlink ref="D5" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
     <hyperlink ref="D4" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="D3" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="D10" r:id="rId8" xr:uid="{BCA5A2E8-0C3E-4DF5-B259-F679DF6580E3}"/>
-    <hyperlink ref="D11" r:id="rId9" xr:uid="{3E1BA876-2934-4871-9259-D56FB7F4492D}"/>
-    <hyperlink ref="D12" r:id="rId10" xr:uid="{4DA34862-1AB0-4253-9EDE-6975863A87AD}"/>
-    <hyperlink ref="D13" r:id="rId11" xr:uid="{09F3B4FF-FA3D-42FB-AC92-08C8C7268187}"/>
+    <hyperlink ref="D10" r:id="rId7" xr:uid="{BCA5A2E8-0C3E-4DF5-B259-F679DF6580E3}"/>
+    <hyperlink ref="D11" r:id="rId8" xr:uid="{3E1BA876-2934-4871-9259-D56FB7F4492D}"/>
+    <hyperlink ref="D12" r:id="rId9" xr:uid="{4DA34862-1AB0-4253-9EDE-6975863A87AD}"/>
+    <hyperlink ref="D13" r:id="rId10" xr:uid="{09F3B4FF-FA3D-42FB-AC92-08C8C7268187}"/>
+    <hyperlink ref="D3" r:id="rId11" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <ignoredErrors>
-    <ignoredError sqref="E7 E8:E13" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -1894,109 +1927,109 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="19.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="19.6640625" style="1"/>
-    <col min="5" max="5" width="17.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="36.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="19.6640625" style="1"/>
+    <col min="1" max="4" width="19.7109375" style="1"/>
+    <col min="5" max="5" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="36.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="19.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39"/>
-    </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="40" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="38"/>
+    </row>
+    <row r="2" spans="1:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="40" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="41">
+      <c r="F2" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="29">
         <v>1</v>
       </c>
-      <c r="B3" s="41">
+      <c r="B3" s="29">
         <v>2</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="29">
         <v>1</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="29">
         <v>8</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="41">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="29">
         <v>2</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="29">
         <v>17</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="29">
         <v>1</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="29">
         <v>9</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="29" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="41">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="29">
         <v>3</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="29">
         <v>16</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="29">
         <v>1</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="29">
         <v>10</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="29" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2013,198 +2046,198 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.77734375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16">
+        <v>3</v>
+      </c>
+      <c r="C3" s="16">
+        <v>7</v>
+      </c>
+      <c r="D3" s="16">
+        <v>1</v>
+      </c>
+      <c r="E3" s="30">
+        <v>43850.625</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>2</v>
+      </c>
+      <c r="B4" s="16">
+        <v>2</v>
+      </c>
+      <c r="C4" s="16">
+        <v>2</v>
+      </c>
+      <c r="D4" s="16">
+        <v>3</v>
+      </c>
+      <c r="E4" s="30">
+        <v>43836.416666666664</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>3</v>
+      </c>
+      <c r="B5" s="16">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16">
+        <v>3</v>
+      </c>
+      <c r="D5" s="16">
+        <v>1</v>
+      </c>
+      <c r="E5" s="30">
+        <v>43868.458333333336</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>4</v>
+      </c>
+      <c r="B6" s="16">
+        <v>2</v>
+      </c>
+      <c r="C6" s="16">
+        <v>2</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1</v>
+      </c>
+      <c r="E6" s="30">
+        <v>43137.416666666664</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" s="16" t="s">
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>5</v>
+      </c>
+      <c r="B7" s="16">
+        <v>1</v>
+      </c>
+      <c r="C7" s="16">
+        <v>4</v>
+      </c>
+      <c r="D7" s="16">
+        <v>3</v>
+      </c>
+      <c r="E7" s="30">
+        <v>43503.458854166667</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="19">
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>6</v>
+      </c>
+      <c r="B8" s="16">
+        <v>3</v>
+      </c>
+      <c r="C8" s="16">
+        <v>7</v>
+      </c>
+      <c r="D8" s="16">
+        <v>2</v>
+      </c>
+      <c r="E8" s="30">
+        <v>43898.625</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>7</v>
+      </c>
+      <c r="B9" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="19">
-        <v>3</v>
-      </c>
-      <c r="C3" s="19">
-        <v>7</v>
-      </c>
-      <c r="D3" s="19">
-        <v>1</v>
-      </c>
-      <c r="E3" s="43">
-        <v>43850.625</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="19">
+      <c r="C9" s="16">
+        <v>4</v>
+      </c>
+      <c r="D9" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="19">
-        <v>2</v>
-      </c>
-      <c r="C4" s="19">
-        <v>2</v>
-      </c>
-      <c r="D4" s="19">
-        <v>3</v>
-      </c>
-      <c r="E4" s="43">
-        <v>43836.416666666664</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="19">
-        <v>3</v>
-      </c>
-      <c r="B5" s="19">
-        <v>2</v>
-      </c>
-      <c r="C5" s="19">
-        <v>3</v>
-      </c>
-      <c r="D5" s="19">
-        <v>1</v>
-      </c>
-      <c r="E5" s="43">
-        <v>43868.458333333336</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="19">
-        <v>4</v>
-      </c>
-      <c r="B6" s="19">
-        <v>2</v>
-      </c>
-      <c r="C6" s="19">
-        <v>2</v>
-      </c>
-      <c r="D6" s="19">
-        <v>1</v>
-      </c>
-      <c r="E6" s="43">
-        <v>43137.416666666664</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="19">
-        <v>5</v>
-      </c>
-      <c r="B7" s="19">
-        <v>1</v>
-      </c>
-      <c r="C7" s="19">
-        <v>4</v>
-      </c>
-      <c r="D7" s="19">
-        <v>3</v>
-      </c>
-      <c r="E7" s="43">
-        <v>43503.458854166667</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="19">
-        <v>6</v>
-      </c>
-      <c r="B8" s="19">
-        <v>3</v>
-      </c>
-      <c r="C8" s="19">
-        <v>7</v>
-      </c>
-      <c r="D8" s="19">
-        <v>2</v>
-      </c>
-      <c r="E8" s="43">
-        <v>43898.625</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="19">
-        <v>7</v>
-      </c>
-      <c r="B9" s="19">
-        <v>1</v>
-      </c>
-      <c r="C9" s="19">
-        <v>4</v>
-      </c>
-      <c r="D9" s="19">
-        <v>2</v>
-      </c>
-      <c r="E9" s="43">
+      <c r="E9" s="30">
         <v>43899.458854166667</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>114</v>
+      <c r="F9" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="I9" s="2"/>
     </row>
